--- a/Excel/edit_menu_labels.xlsx
+++ b/Excel/edit_menu_labels.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -124,54 +124,15 @@
     <t>&lt;  Back to: Edit Menu</t>
   </si>
   <si>
-    <t>मेनू संपादित करा: लेबले - धैर्य मॅन्युअल</t>
-  </si>
-  <si>
-    <t>मेनू संपादित करा: लेबले</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>लेबल कॅसकेडिंग संपादन मेनूमधील आयटम आपल्याला लेबले जोडणे आणि संपादित करण्यास सक्षम करतात.</t>
-  </si>
-  <si>
     <t>अधिक जाणून घेण्यासाठी प्रतिमेवर क्लिक करा</t>
   </si>
   <si>
     <t>मॅक वापरकर्ते: Ctrl = ⌘ आणि Alt = पर्याय. तर, उदाहरणार्थ, Ctrl + Alt + V = ⌘ + पर्याय + व्ही</t>
   </si>
   <si>
-    <t>लेबले संपादित करा</t>
-  </si>
-  <si>
-    <t>ही आज्ञा लेबल एडिटरची विनंती करते जी आपल्याला कीबोर्ड वापरुन लेबल ट्रॅक जोडू किंवा काढू देते आणि त्यांची लेबले पूर्णपणे संपादित करू देते, जेणेकरून दृष्टिहीन वापरकर्त्यांसाठी उपयुक्त आहे.</t>
-  </si>
-  <si>
-    <t>कीबोर्ड-प्रवेशयोग्य टॅब्यूलर व्ह्यूमध्ये आपले सर्व लेबल दर्शविणारा एक संवाद बॉक्स आणतो. संवादातील सुलभ बटणे आपल्‍याला लेबल घालू किंवा हटवू देतील किंवा फायलीवर लेबल आयात आणि निर्यात करु देतील. अधिक माहितीसाठी लेबल संपादक पहा.</t>
-  </si>
-  <si>
-    <t>निवड Ctrl + B वर लेबल जोडा</t>
-  </si>
-  <si>
     <t>ही आज्ञा आपल्या वर्तमान कर्सर स्थानावर किंवा निवडीस नवीन लेबल ठेवेल. अधिक माहितीसाठी हे पृष्ठ पहा.</t>
   </si>
   <si>
-    <t>संपादन कर्सर किंवा निवड प्रदेशाच्या स्थानावर एक नवीन लेबल तयार करते. त्यानंतर आपण कीबोर्डसह टाइप करून आणि आपले कार्य पूर्ण झाल्यावर "एंटर" दाबून लेबलचे शीर्षक देऊ शकता. जेव्हा आपण नंतर लेबल क्लिक कराल तेव्हा ते संपादन कर्सर किंवा लेबल तयार केलेल्या निवडीची स्थिती आठवेल. लेबल ट्रॅक कसे वापरावे याबद्दल अधिक माहितीसाठी लेबल ट्रॅक पहा.</t>
-  </si>
-  <si>
-    <t>प्लेबॅक पोझिशन Ctrl + M वर लेबल जोडा</t>
-  </si>
-  <si>
-    <t>ही आज्ञा आपल्या सद्य प्लेबॅक किंवा रेकॉर्डिंग स्थितीत एक नवीन लेबल ठेवेल. अधिक माहितीसाठी हे पृष्ठ पहा.</t>
-  </si>
-  <si>
-    <t>निवडीवर लेबल जोडा परंतु लेबल प्लेबॅक किंवा रेकॉर्डिंग दरम्यान सद्य स्थितीत जोडले गेले आहे.</t>
-  </si>
-  <si>
     <t>मॅकवर या आदेशाचा शॉर्टकट (⌘ +.) आहे.</t>
   </si>
   <si>
@@ -224,6 +185,45 @@
   </si>
   <si>
     <t>&lt;परत: संपादन मेनू</t>
+  </si>
+  <si>
+    <t>संपादन मेन्यू  : लेबल</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>संपादन मेन्यू  : लेबल - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>लेबल कॅसकेडिंग संपादन मेनूमधील घटक आपल्याला लेबल जोडणे आणि संपादित करण्यास सक्षम करतात.</t>
+  </si>
+  <si>
+    <t>लेबल संपादित करा</t>
+  </si>
+  <si>
+    <t>ही आज्ञा लेबल संपादकाला विनंती करते जी आपल्याला कीबोर्ड वापरुन लेबलपट्टा जोडू किंवा काढू देते आणि त्यांची लेबल पूर्णपणे संपादित करू देते, जेणेकरून दृष्टिहीन वापरकर्त्यांसाठी उपयुक्त आहे.</t>
+  </si>
+  <si>
+    <t>कीबोर्ड-प्रवेशयोग्य टॅब्यूलर व्ह्यूमध्ये आपले सर्व लेबल दर्शविणारा एक संवाद बॉक्स आणतो. संवादातील सुलभ बटणे आपल्‍याला लेबल घालू किंवा हटवू देतील किंवा धारिकावर लेबल आयात आणि निर्यात करु देतील. अधिक माहितीसाठी लेबल संपादक पहा.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">निवडीमध्ये लेबल जोडा Ctrl + B </t>
+  </si>
+  <si>
+    <t>संपादन कर्सर किंवा निवड प्रदेशाच्या स्थानावर एक नवीन लेबल तयार करते. त्यानंतर आपण कीबोर्डसह टाइप करून आणि आपले कार्य पूर्ण झाल्यावर "एंटर" दाबून लेबलचे शीर्षक देऊ शकता. जेव्हा आपण नंतर लेबल क्लिक कराल तेव्हा ते संपादन कर्सर किंवा लेबल तयार केलेल्या निवडीची स्थिती आठवेल. लेबलपट्टा  कसे वापरावे याबद्दल अधिक माहितीसाठी लेबलपट्टा  पहा.</t>
+  </si>
+  <si>
+    <t>प्लेबॅकच्या स्थानावर लेबल जोडा</t>
+  </si>
+  <si>
+    <t>ही आज्ञा आपल्या सद्य प्लेबॅक किंवा ध्वनिमुद्रणाच्या स्थितीत एक नवीन लेबल ठेवेल. अधिक माहितीसाठी हे पृष्ठ पहा.</t>
+  </si>
+  <si>
+    <t>निवडीवर लेबल जोडा परंतु लेबल प्लेबॅक किंवा ध्वनिमुद्रणाच्या दरम्यान सद्य स्थितीत जोडले गेले आहे.</t>
   </si>
 </sst>
 </file>
@@ -282,11 +282,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,9 +584,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -603,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -614,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -625,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -636,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -647,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -658,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -669,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -680,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -691,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -702,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -713,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -724,7 +731,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -734,8 +741,8 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>48</v>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -746,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -757,7 +764,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -768,7 +775,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -779,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -790,7 +797,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -801,7 +808,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -812,7 +819,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -823,7 +830,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -834,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -845,7 +852,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -856,7 +863,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -867,7 +874,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -878,7 +885,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -889,7 +896,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -900,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -911,7 +918,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -922,7 +929,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -933,7 +940,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -944,7 +951,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -955,7 +962,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -966,10 +973,11 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/edit_menu_labels.xlsx
+++ b/Excel/edit_menu_labels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>English</t>
   </si>
@@ -94,21 +94,9 @@
     <t>When the label track has the yellow focus border as in the image above you can, if preferred, just type to create a label containing that text rather than first using the menu or shortcut to create the label.</t>
   </si>
   <si>
-    <t>This default behavior can be turned off, if required, in</t>
-  </si>
-  <si>
-    <t>Tracks Preferences by unchecking the "Type to create label".</t>
-  </si>
-  <si>
     <t>When enabled (default), if there is already a label track that has the yellow focus border, you do not need to use "Add Label at Selection" or its Ctrl + B shortcut to create a new label. Just type your required label text to create a new label at the position of the editing cursor or selection region. If the label track does not have focus, use the Up or Down arrow keys on your keyboard to move focus into the label track.</t>
   </si>
   <si>
-    <t>When this preference is disabled, typing never creates a label in the focused label track. This lets you</t>
-  </si>
-  <si>
-    <t>use shortcuts (for example, transport shortcuts to play audio related to the editing cursor or selection) without accidentally creating an unwanted label. When you want to create a new label, use "Add Label at Selection" or Ctrl + B or "Add Label at Playback Position" Ctrl + M.</t>
-  </si>
-  <si>
     <t>Even if "Type to Create a Label" is enabled, you cannot type to create a new label:</t>
   </si>
   <si>
@@ -130,100 +118,100 @@
     <t>मॅक वापरकर्ते: Ctrl = ⌘ आणि Alt = पर्याय. तर, उदाहरणार्थ, Ctrl + Alt + V = ⌘ + पर्याय + व्ही</t>
   </si>
   <si>
-    <t>ही आज्ञा आपल्या वर्तमान कर्सर स्थानावर किंवा निवडीस नवीन लेबल ठेवेल. अधिक माहितीसाठी हे पृष्ठ पहा.</t>
-  </si>
-  <si>
     <t>मॅकवर या आदेशाचा शॉर्टकट (⌘ +.) आहे.</t>
   </si>
   <si>
-    <t>नवीन लेबल Ctrl + Alt + V वर मजकूर पेस्ट करा</t>
-  </si>
-  <si>
     <t>अतिरिक्त</t>
   </si>
   <si>
-    <t>सिस्टम क्लिपबोर्डवरील मजकूर (किंवा ऑडसिटी क्लिपबोर्डमध्ये संग्रहित लेबलवरील मजकूर) सध्या निवडलेल्या लेबल ट्रॅकमधील कर्सर किंवा प्रदेश स्थितीवरील नवीन लेबलवर पेस्ट करतो. जर लेबल ट्रॅकमध्ये निवड नसेल तर पॉईंट लेबल तयार केले जाईल. लेबल ट्रॅकमध्ये श्रेणी निवडल्यास श्रेणी लेबल तयार केले जाते. काहीही नसल्यास एक नवीन लेबल ट्रॅक तयार केला जातो.</t>
-  </si>
-  <si>
-    <t>सर्वात क्लिपबोर्डवर कट केलेला किंवा कॉपी केलेला सर्वात अलीकडील मजकूर पेस्ट केला आहे. जर आपण ऑडसिटी क्लिपबोर्डवर लेबल कॉपी किंवा कट केला असेल तर त्या लेबलचा मजकूर पेस्ट केला जाईल. जर आपण ऑडॅसिटी व्यतिरिक्त अनुप्रयोगावरून सिस्टम क्लिपबोर्डवर मजकूर कापला किंवा कॉपी केला असेल तर तो मजकूर पेस्ट केला जाईल.</t>
-  </si>
-  <si>
-    <t>खाली दिलेल्या उदाहरणात, वर्ड प्रोसेसिंग डॉक्युमेंटमधून "प्रश्न 1" मजकूर कॉपी केला गेला आणि नंतर "नवीन लेबलवर मजकूर पेस्ट करा" आज्ञा कार्यान्वित केली गेली.</t>
-  </si>
-  <si>
-    <t>एक लेबल तयार करण्यासाठी टाइप करा (चालू / बंद)</t>
-  </si>
-  <si>
-    <t>लेबल ट्रॅकला वरील प्रतिमांप्रमाणे पिवळी फोकस बॉर्डर असेल जेव्हा आपण प्राधान्य दिले तर लेबल तयार करण्यासाठी मेनू किंवा शॉर्टकट वापरण्याऐवजी त्या मजकूरासह एक लेबल तयार करा.</t>
-  </si>
-  <si>
-    <t>हे डीफॉल्ट वर्तन आवश्यक असल्यास, बंद केले जाऊ शकते</t>
-  </si>
-  <si>
-    <t>"लेबल तयार करण्यासाठी टाइप करा" अनचेक करून प्राधान्यांचा मागोवा घ्या.</t>
-  </si>
-  <si>
-    <t>सक्षम असल्यास (डीफॉल्ट), जर आधीपासूनच तेथे पिवळ्या रंगाची फोकस सीमा असलेला लेबल ट्रॅक असेल तर आपल्याला नवीन लेबल तयार करण्यासाठी "निवडीवर लेबल जोडा" किंवा त्याचा Ctrl + B शॉर्टकट वापरण्याची आवश्यकता नाही. संपादन कर्सर किंवा निवड प्रदेशाच्या ठिकाणी नवीन लेबल तयार करण्यासाठी फक्त आपला आवश्यक लेबल मजकूर टाइप करा. लेबल ट्रॅकवर फोकस नसल्यास, फोकस लेबल ट्रॅकमध्ये हलविण्यासाठी आपल्या कीबोर्डवरील अप किंवा डाऊन arrowरो की वापरा.</t>
-  </si>
-  <si>
-    <t>जेव्हा हे प्राधान्य अक्षम केले जाते, तेव्हा टाइपिंग लक्ष केंद्रित लेबल ट्रॅकमध्ये कधीही लेबल तयार करत नाही. हे आपल्याला देते</t>
-  </si>
-  <si>
-    <t>चुकून अवांछित लेबल तयार न करता शॉर्टकट वापरा (उदाहरणार्थ, संपादन कर्सर किंवा निवडीशी संबंधित ऑडिओ प्ले करण्यासाठी ट्रान्सपोर्ट शॉर्टकट). जेव्हा आपणास नवीन लेबल तयार करायचे असेल तेव्हा "निवडीवर लेबल जोडा" किंवा सीटीआरएल + बी किंवा "प्लेबॅक पोझिशनवर लेबल जोडा" सीटीआरएल + एम वापरा.</t>
-  </si>
-  <si>
-    <t>जरी "लेबल तयार करा टाइप करा" सक्षम केलेले असले तरीही आपण नवीन लेबल तयार करण्यासाठी टाइप करू शकत नाही:</t>
-  </si>
-  <si>
-    <t>जर ऑडिओ प्ले होत असेल, रेकॉर्डिंग करीत असेल किंवा विराम दिला असेल आणि कर्सर किंवा निवड वेव्हफॉर्म आणि लेबल ट्रॅकमध्ये समान स्थानावर असेल</t>
-  </si>
-  <si>
-    <t>लेबल ट्रॅकमध्ये तंतोतंत त्याच स्थितीत लेबल असल्यास.</t>
-  </si>
-  <si>
-    <t>आपण त्याच ठिकाणी त्याच ठिकाणी नवीन लेबल जोडण्यासाठी Ctrl + B किंवा प्लेबॅक, रेकॉर्डिंग किंवा विराम दिलेल्या स्थितीत लेबल जोडण्यासाठी Ctrl + M वापरू शकता. आपण त्याच स्थानावर लक्ष केंद्रित करून दुसर्‍या लेबल ट्रॅकवर टाइप करून लेबल देखील तयार करू शकता, जोपर्यंत त्या स्थितीत अद्याप कोणतेही लेबल उपलब्ध नाही आणि ऑडिओ प्ले होत असल्यास जोपर्यंत वेव्हफॉर्ममध्ये कर्सर किंवा निवड असेल तोपर्यंत भिन्न स्थानावर.</t>
-  </si>
-  <si>
     <t>&lt;परत: संपादन मेनू</t>
   </si>
   <si>
-    <t>संपादन मेन्यू  : लेबल</t>
-  </si>
-  <si>
     <t>येथे जा: निर्देशांक, शोधा</t>
   </si>
   <si>
     <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
   </si>
   <si>
-    <t>संपादन मेन्यू  : लेबल - ओड्यासिटी माहितीपुस्तका</t>
-  </si>
-  <si>
-    <t>लेबल कॅसकेडिंग संपादन मेनूमधील घटक आपल्याला लेबल जोडणे आणि संपादित करण्यास सक्षम करतात.</t>
-  </si>
-  <si>
-    <t>लेबल संपादित करा</t>
-  </si>
-  <si>
-    <t>ही आज्ञा लेबल संपादकाला विनंती करते जी आपल्याला कीबोर्ड वापरुन लेबलपट्टा जोडू किंवा काढू देते आणि त्यांची लेबल पूर्णपणे संपादित करू देते, जेणेकरून दृष्टिहीन वापरकर्त्यांसाठी उपयुक्त आहे.</t>
-  </si>
-  <si>
-    <t>कीबोर्ड-प्रवेशयोग्य टॅब्यूलर व्ह्यूमध्ये आपले सर्व लेबल दर्शविणारा एक संवाद बॉक्स आणतो. संवादातील सुलभ बटणे आपल्‍याला लेबल घालू किंवा हटवू देतील किंवा धारिकावर लेबल आयात आणि निर्यात करु देतील. अधिक माहितीसाठी लेबल संपादक पहा.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">निवडीमध्ये लेबल जोडा Ctrl + B </t>
-  </si>
-  <si>
-    <t>संपादन कर्सर किंवा निवड प्रदेशाच्या स्थानावर एक नवीन लेबल तयार करते. त्यानंतर आपण कीबोर्डसह टाइप करून आणि आपले कार्य पूर्ण झाल्यावर "एंटर" दाबून लेबलचे शीर्षक देऊ शकता. जेव्हा आपण नंतर लेबल क्लिक कराल तेव्हा ते संपादन कर्सर किंवा लेबल तयार केलेल्या निवडीची स्थिती आठवेल. लेबलपट्टा  कसे वापरावे याबद्दल अधिक माहितीसाठी लेबलपट्टा  पहा.</t>
-  </si>
-  <si>
-    <t>प्लेबॅकच्या स्थानावर लेबल जोडा</t>
-  </si>
-  <si>
-    <t>ही आज्ञा आपल्या सद्य प्लेबॅक किंवा ध्वनिमुद्रणाच्या स्थितीत एक नवीन लेबल ठेवेल. अधिक माहितीसाठी हे पृष्ठ पहा.</t>
-  </si>
-  <si>
-    <t>निवडीवर लेबल जोडा परंतु लेबल प्लेबॅक किंवा ध्वनिमुद्रणाच्या दरम्यान सद्य स्थितीत जोडले गेले आहे.</t>
+    <t>This default behavior can be turned off, if required, in Tracks Preferences by unchecking the "Type to create label".</t>
+  </si>
+  <si>
+    <t>When this preference is disabled, typing never creates a label in the focused label track. This lets you use shortcuts (for example, transport shortcuts to play audio related to the editing cursor or selection) without accidentally creating an unwanted label. When you want to create a new label, use "Add Label at Selection" or Ctrl + B or "Add Label at Playback Position" Ctrl + M.</t>
+  </si>
+  <si>
+    <t>जर ध्वनी चालू होत असेल, ध्वनिमुद्रणाकरीत असेल किंवा विराम दिला असेल आणि कर्सर किंवा निवड तरंगरूप आणि नावपट्टीमध्ये समान स्थानावर असेल</t>
+  </si>
+  <si>
+    <t>नवपट्टीमध्ये तंतोतंत त्याच स्थितीत नवपट्टी असल्यास.</t>
+  </si>
+  <si>
+    <t>आपण त्याच ठिकाणी त्याच ठिकाणी नवीन नवपट्टी जोडण्यासाठी Ctrl + B किंवा प्लेबॅक, ध्वनिमुद्रण किंवा विराम दिलेल्या स्थितीत नवपट्टी जोडण्यासाठी Ctrl + M वापरू शकता. आपण त्याच स्थानावर लक्ष केंद्रित करून दुसर्‍या नवपट्टीच्या पट्ट्यावर टाइप करून नवपट्टी देखील तयार करू शकता, जोपर्यंत त्या स्थितीत अद्याप कोणतेही नवपट्टी उपलब्ध नाही आणि ध्वनी चालू होत असल्यास जोपर्यंत तरंगरूपामध्ये कर्सर किंवा निवड असेल तोपर्यंत भिन्न स्थानावर.</t>
+  </si>
+  <si>
+    <t>संपादन मेन्यू  : नावपट्टी - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>संपादन मेन्यू  : नावपट्टी</t>
+  </si>
+  <si>
+    <t>नावपट्टी कॅसकेडिंग संपादन मेनूमधील घटक आपल्याला नावपट्टी जोडणे आणि संपादित करण्यास सक्षम करतात.</t>
+  </si>
+  <si>
+    <t>नावपट्टी संपादित करा</t>
+  </si>
+  <si>
+    <t>ही आज्ञा नावपट्टी संपादकाला विनंती करते जी आपल्याला कीबोर्ड वापरुन नावपट्टीच्या पट्ट्या जोडू किंवा काढू देते आणि त्यांची नावपट्टी पूर्णपणे संपादित करू देते, जेणेकरून दृष्टिहीन वापरकर्त्यांसाठी उपयुक्त आहे.</t>
+  </si>
+  <si>
+    <t>कीबोर्ड-प्रवेशयोग्य टॅब्यूलर व्ह्यूमध्ये आपले सर्व नावपट्टी दर्शविणारा एक संवाद बॉक्स आणतो. संवादातील सुलभ बटणे आपल्‍याला नावपट्टी घालू किंवा हटवू देतील किंवा धारिकावर नावपट्टी आयात आणि निर्यात करु देतील. अधिक माहितीसाठी नावपट्टी संपादक पहा.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">निवडीमध्ये नावपट्टी जोडा Ctrl + B </t>
+  </si>
+  <si>
+    <t>ही आज्ञा आपल्या वर्तमान कर्सर स्थानावर किंवा निवडीस नवीन नावपट्टी ठेवेल. अधिक माहितीसाठी हे पृष्ठ पहा.</t>
+  </si>
+  <si>
+    <t>संपादन कर्सर किंवा निवड प्रदेशाच्या स्थानावर एक नवीन नावपट्टी तयार करते. त्यानंतर आपण कीबोर्डसह टाइप करून आणि आपले कार्य पूर्ण झाल्यावर "एंटर" दाबून नावपट्टीचे शीर्षक देऊ शकता. जेव्हा आपण नंतर नावपट्टी क्लिक कराल तेव्हा ते संपादन कर्सर किंवा नावपट्टी तयार केलेल्या निवडीची स्थिती आठवेल. नावपट्टीच्या पट्ट्या  कसे वापरावे याबद्दल अधिक माहितीसाठी नावपट्टीच्या पट्ट्या  पहा.</t>
+  </si>
+  <si>
+    <t>प्लेबॅकच्या स्थानावर नावपट्टी जोडा</t>
+  </si>
+  <si>
+    <t>ही आज्ञा आपल्या सद्य प्लेबॅक किंवा ध्वनिमुद्रणाच्या स्थितीत एक नवीन नावपट्टी ठेवेल. अधिक माहितीसाठी हे पृष्ठ पहा.</t>
+  </si>
+  <si>
+    <t>निवडीवर नावपट्टी जोडा परंतु नावपट्टी प्लेबॅक किंवा ध्वनिमुद्रणाच्या दरम्यान सद्य स्थितीत जोडले गेले आहे.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">नवीन नावपट्टीवर मजकूर पेस्ट करा Ctrl + Alt + V </t>
+  </si>
+  <si>
+    <t>सिस्टम क्लिपबोर्डवरील मजकूर (किंवा ओड्यासिटी क्लिपबोर्डमध्ये संग्रहित नावपट्टीवरील मजकूर) सध्या निवडलेल्या नावपट्टीपट्ट्यामधील कर्सर किंवा प्रदेश स्थितीवरील नवीन नावपट्टीवर पेस्ट करतो. जर नावपट्टीपट्ट्यामध्ये निवड नसेल तर पॉईंट नावपट्टी तयार केले जाईल. नावपट्टीपट्ट्यामध्ये श्रेणी निवडल्यास श्रेणी नावपट्टी तयार केले जाते. काहीही नसल्यास एक नवीन नावपट्टीच्या पट्ट्या तयार केला जातो.</t>
+  </si>
+  <si>
+    <t>सर्वात क्लिपबोर्डवर कट केलेला किंवा कॉपी केलेला सर्वात अलीकडील मजकूर पेस्ट केला आहे. जर आपण ओड्यासिटी क्लिपबोर्डवर नावपट्टी कॉपी किंवा कट केला असेल तर त्या नावपट्टीचा मजकूर पेस्ट केला जाईल. जर आपण ओड्यासिटी व्यतिरिक्त अनुप्रयोगावरून सिस्टम क्लिपबोर्डवर मजकूर कट किंवा कॉपी केला असेल तर तो मजकूर पेस्ट केला जाईल.</t>
+  </si>
+  <si>
+    <t>खाली दिलेल्या उदाहरणात, शब्दांची प्रक्रिया दस्तऐवजमधून "प्रश्न 1" मजकूर कॉपी केला गेला आणि नंतर "नवीन नावपट्टीवर मजकूर पेस्ट करा" आज्ञा कार्यान्वित केली गेली.</t>
+  </si>
+  <si>
+    <t>एक नावपट्टी तयार करण्यासाठी टाइप करा (चालू / बंद)</t>
+  </si>
+  <si>
+    <t>नावपट्टीच्या पट्ट्याला वरील प्रतिमांप्रमाणे पिवळी फोकस बॉर्डर असेल जेव्हा आपण प्राधान्य दिले तर नावपट्टी तयार करण्यासाठी मेनू किंवा शॉर्टकट वापरण्याऐवजी त्या मजकूरासह एक नावपट्टी तयार करा.</t>
+  </si>
+  <si>
+    <t>नावपट्टी तयार करण्यासाठी टाइप करा अनचेक करून गीतपट्टाच्या प्राधान्यांमध्ये, हे डीफॉल्ट वर्तन बंद केले जाऊ शकते.</t>
+  </si>
+  <si>
+    <t>सक्षम असल्यास (डीफॉल्ट), जर आधीपासूनच तेथे पिवळ्या रंगाची फोकस सीमा असलेला नावपट्टीच्या पट्ट्या असेल तर आपल्याला नवीन नावपट्टी तयार करण्यासाठी "निवडीवर नावपट्टी जोडा" किंवा त्याचा Ctrl + B शॉर्टकट वापरण्याची आवश्यकता नाही. संपादन कर्सर किंवा निवड प्रदेशाच्या ठिकाणी नवीन नावपट्टी तयार करण्यासाठी फक्त आपला आवश्यक नावपट्टी मजकूर टाइप करा. नावपट्टीच्या पट्ट्यावर फोकस नसल्यास, फोकस नावपट्टीच्या पट्ट्यामध्ये हलविण्यासाठी आपल्या कीबोर्डवरील अप किंवा डाऊन एरो की वापरा.</t>
+  </si>
+  <si>
+    <t>जेव्हा हे प्राधान्य अक्षम केले जाते, तेव्हा टाइपिंग लक्ष केंद्रित नावपट्टीपट्ट्यामध्ये कधीही नावपट्टी तयार करत नाही. हे आपल्याला चुकून अवांछित नावपट्टी तयार न करता शॉर्टकट (उदाहरणार्थ, संपादन कर्सर किंवा निवडीशी संबंधित ध्वनी चालू करण्यासाठी वाहतुक शॉर्टकट) वापरू देते. आपण नवीन नावपट्टी तयार करू इच्छित असल्यास, "निवडीवर नावपट्टी जोडा" किंवा Ctrl + B किंवा "प्लेबॅक पोझिशनवर नावपट्टी जोडा" Ctrl + M वापरा.</t>
+  </si>
+  <si>
+    <t>जरी "नावपट्टी तयार करा टाइप करा" सक्षम केलेले असले तरीही आपण नवीन नावपट्टी तयार करण्यासाठी टाइप करू शकत नाही:</t>
   </si>
 </sst>
 </file>
@@ -582,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -610,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -621,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -632,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -643,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -654,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -665,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -676,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -687,7 +675,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -698,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -709,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -720,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -731,7 +719,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -742,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -753,7 +741,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -764,7 +752,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -775,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -786,7 +774,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -797,7 +785,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -808,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -819,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -829,8 +817,8 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>43</v>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -841,7 +829,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -852,7 +840,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -863,7 +851,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -871,10 +859,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -882,10 +870,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -893,10 +881,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -904,10 +892,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -915,10 +903,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -926,10 +914,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -937,10 +925,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -948,32 +936,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
